--- a/biology/Zoologie/Cixiinae/Cixiinae.xlsx
+++ b/biology/Zoologie/Cixiinae/Cixiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cixiinae sont une sous-famille de cicadelles de la famille des Cixiidae. C'est l'une des trois sous-familles de ce type, les deux autres étant les Bothriocerinae et les Borystheninae[1]. Alors que quelques espèces avaient été testées dans une étude plus large de la Fulgoroidea[2], ni les Cixiinae ni ses tribus n'ont été analysées cladistiquement jusqu'en 2002[1],[3]. La résolution des relations tribales est incomplète et des tests supplémentaires des tribus avec des échantillons de plus d'un par tribu sont nécessaires[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cixiinae sont une sous-famille de cicadelles de la famille des Cixiidae. C'est l'une des trois sous-familles de ce type, les deux autres étant les Bothriocerinae et les Borystheninae. Alors que quelques espèces avaient été testées dans une étude plus large de la Fulgoroidea, ni les Cixiinae ni ses tribus n'ont été analysées cladistiquement jusqu'en 2002,. La résolution des relations tribales est incomplète et des tests supplémentaires des tribus avec des échantillons de plus d'un par tribu sont nécessaires.
 </t>
         </is>
       </c>
@@ -511,25 +523,27 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1938, Metcalf a divisé les Cixiinae en tribus, y compris les Cixiini et les Oecleini de Muir[5] ; cependant, ces divisions ont rarement été mentionnées et sont restées inopérantes pendant des décennies[2]. Par la suite, les Stenophlepsiini ont été retournés aux Cixiinae et les Pentastirini ont été subdivisés en sous-tribus Pentastirina et Oliarina[2],[6]. Cependant, Oliarina a été plus tard synonyme sous Pentastirina[7]. En 2002, Emeljanov a créé sept nouvelles tribus[3],[4] et en 2004 la sous-tribu Mnemosynina de la tribu Pentastirini a été élevée au niveau tribal sous le nom de Mnemosynini[8].  
-Actuellement, il y a seize tribus reconnues, bien que certaines tribus manquent de description adéquate[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1938, Metcalf a divisé les Cixiinae en tribus, y compris les Cixiini et les Oecleini de Muir ; cependant, ces divisions ont rarement été mentionnées et sont restées inopérantes pendant des décennies. Par la suite, les Stenophlepsiini ont été retournés aux Cixiinae et les Pentastirini ont été subdivisés en sous-tribus Pentastirina et Oliarina,. Cependant, Oliarina a été plus tard synonyme sous Pentastirina. En 2002, Emeljanov a créé sept nouvelles tribus, et en 2004 la sous-tribu Mnemosynina de la tribu Pentastirini a été élevée au niveau tribal sous le nom de Mnemosynini.  
+Actuellement, il y a seize tribus reconnues, bien que certaines tribus manquent de description adéquate : 
 Andini Emeljanov, 2002
 Bennarellini Emeljanov, 1989
 Bennini Metcalf, 1938
 Brixidiini Emeljanov, 2002
 Brixiini Emeljanov, 2002
 Cajetini Emeljanov, 2002
-Cixiini Muir, 1923 - non-monophylétique[4]
+Cixiini Muir, 1923 - non-monophylétique
 Duiliini Emeljanov, 2002
-Eucarpiini Emeljanov, 2002 -  monophylétique[4]
-Gelastocephalini Emeljanov, 2000 - vraisemblablement monophylétique[4]
-Mnemosynini Szwedo, 2004 -  monophylétique[4]
-Oecleini Muir, 1922 - non-monophylétique[4]
-Pentastirini Emeljanov, 1971 -  monophylétique[4]
-Pintaliini Metcalf, 1938 - non-monophylétique[4]
-Semonini Emeljanov, 2002 - vraisemblablement monophylétique[4]
+Eucarpiini Emeljanov, 2002 -  monophylétique
+Gelastocephalini Emeljanov, 2000 - vraisemblablement monophylétique
+Mnemosynini Szwedo, 2004 -  monophylétique
+Oecleini Muir, 1922 - non-monophylétique
+Pentastirini Emeljanov, 1971 -  monophylétique
+Pintaliini Metcalf, 1938 - non-monophylétique
+Semonini Emeljanov, 2002 - vraisemblablement monophylétique
 Stenophlepsiini Metcalf, 1938
 </t>
         </is>
